--- a/biology/Zoologie/Hypsiglena_jani/Hypsiglena_jani.xlsx
+++ b/biology/Zoologie/Hypsiglena_jani/Hypsiglena_jani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypsiglena jani  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypsiglena jani  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le Nord-est du Mexique et dans le Centre-Sud des États-Unis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le Nord-est du Mexique et dans le Centre-Sud des États-Unis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 septembre 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 septembre 2013) :
 Hypsiglena jani dunklei Taylor, 1938
 Hypsiglena jani jani (Dugès, 1865)
 Hypsiglena jani texana Stejneger, 1893</t>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Giorgio Jan[3]. La sous-espèce Hypsiglena jani dunklei est nommée en l'honneur de David Hosbrook Dunkle[4] et la sous-espèce Hypsiglena jani texana en référence au lieu de sa découverte, le Texas.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Giorgio Jan. La sous-espèce Hypsiglena jani dunklei est nommée en l'honneur de David Hosbrook Dunkle et la sous-espèce Hypsiglena jani texana en référence au lieu de sa découverte, le Texas.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dugès, 1865 : Du Liophis janii. Extraits de procès verbaux de l'Académie des sciences et lettres de Montpellier, vol. 6, p. 32–33.
 Stejneger, 1893 : Annotated list of the reptiles and batrachians collected by the Death Valley Expedition in 1891, with descriptions of new species. North American Fauna, vol. 7, p. 159-228 (texte intégral).
